--- a/_data/length_dist.xlsx
+++ b/_data/length_dist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">len_tmd</t>
   </si>
@@ -36,6 +36,9 @@
   <si>
     <t xml:space="preserve">N_out_JMD_C</t>
   </si>
+  <si>
+    <t xml:space="preserve">sub_nonsub_TMD</t>
+  </si>
 </sst>
 </file>
 
@@ -44,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -68,6 +71,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Droid Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Droid Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -133,6 +143,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,19 +155,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,25 +293,25 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -310,136 +320,139 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="n">
         <v>0.000477223427331887</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.00646140503035559</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="n">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="n">
         <v>0.0003470715835141</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.00550737207285343</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="n">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="n">
         <v>0.000130151843817787</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.00390286209887251</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="n">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="n">
         <v>0.00780911062906725</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.0110581092801388</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="n">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="n">
         <v>0.00281995661605206</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.00520381613183001</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="n">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="n">
         <v>0.00281995661605206</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.00685169124024285</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="n">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="n">
         <v>0.000997830802603037</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.00646140503035559</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4" t="n">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="n">
         <v>0.00117136659436009</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.00793581960104076</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="n">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="n">
         <v>0.0024295010845987</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.460971379011275</v>
       </c>
       <c r="F10" s="6"/>
@@ -447,15 +460,15 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="n">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="n">
         <v>0.980997830802603</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.485646140503036</v>
       </c>
       <c r="F11" s="6"/>
@@ -463,11 +476,11 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -475,11 +488,11 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -487,11 +500,11 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
@@ -499,11 +512,11 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
@@ -511,259 +524,277 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.000685</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.006854</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.015764</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.037012</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>0.006803</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
+      <c r="F21" s="2" t="n">
+        <v>0.006803</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.137766</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>0.102041</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
+      <c r="F22" s="2" t="n">
+        <v>0.102041</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>0.332762</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>0.401361</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
+      <c r="F23" s="2" t="n">
+        <v>0.401361</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>0.313228</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>0.353741</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="2" t="n">
+        <v>0.353741</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>0.10658</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>0.122449</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="2" t="n">
+        <v>0.122449</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>0.034613</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>0.013605</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
+      <c r="F26" s="2" t="n">
+        <v>0.013605</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>0.007197</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>0.002399</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>0.000685</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>0.001028</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>0.000343</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>0.001371</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>0.001371</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
